--- a/Listado SIFERE.xlsx
+++ b/Listado SIFERE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-RETPER-SIFERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC30BB5-65ED-4D4B-B184-B50C5EA23D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F95668-D5DF-4B8E-8544-8255072B4E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$X$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$Y$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +40,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Agustín Bustos</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{9A671D54-743D-47B5-83B1-F5E2D7EABBE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ubicación de descarga de los archivos van desde el disco hasta el ultimo "\"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{084FAC17-36EB-468E-8A90-B59745FF71D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Si no se descargan en la ubicación o con el nombre segpun la formula se debe cambiar la opción a "NO"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="32">
   <si>
     <t>Nro</t>
   </si>
@@ -106,15 +164,6 @@
     <t>Filtro</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Nombre SIFERE</t>
   </si>
   <si>
@@ -132,12 +181,27 @@
   <si>
     <t>SI</t>
   </si>
+  <si>
+    <t>C:\Users\ABP\Desktop\Test\</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Nombre SIRTAC</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +226,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1982,6 +2059,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2246,12 +2327,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,13 +2343,13 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="17" width="14.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="14.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2306,43 +2387,46 @@
         <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -2361,69 +2445,75 @@
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2" t="str">
         <f t="shared" ref="N2" si="1">CONCATENATE("SIFERE - ",G2,F2," - ",I2,H2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
-        <v>SIFERE - 202301 - 202312 - 20000000000 - Cliente</v>
+        <v>SIFERE - 202405 - 202405 - 20000000000 - Cliente</v>
       </c>
       <c r="O2" s="2" t="str">
         <f>CONCATENATE("SIRCAR - JURISDICCION - ",G2,F2," - ",I2,H2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
-        <v>SIRCAR - JURISDICCION - 202301 - 202312 - 20000000000 - Cliente</v>
+        <v>SIRCAR - JURISDICCION - 202405 - 202405 - 20000000000 - Cliente</v>
       </c>
       <c r="P2" s="2" t="str">
         <f t="shared" ref="P2" si="2">CONCATENATE("SIRCREB - ",G2,F2," - ",I2,H2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
-        <v>SIRCREB - 202301 - 202312 - 20000000000 - Cliente</v>
+        <v>SIRCREB - 202405 - 202405 - 20000000000 - Cliente</v>
       </c>
       <c r="Q2" s="2" t="str">
-        <f t="shared" ref="Q2" si="3">CONCATENATE("SIRPEI - ",G2,F2," - ",I2,H2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
-        <v>SIRPEI - 202301 - 202312 - 20000000000 - Cliente</v>
-      </c>
-      <c r="R2" s="5" t="str">
+        <f>CONCATENATE("SIRPEI - ",G2,F2," - ",I2,H2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <v>SIRPEI - 202405 - 202405 - 20000000000 - Cliente</v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <f>CONCATENATE("SIRTAC - ",G2,F2," - ",I2,H2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <v>SIRTAC - 202405 - 202405 - 20000000000 - Cliente</v>
+      </c>
+      <c r="S2" s="5" t="str">
         <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S2" s="4" t="str">
+      <c r="T2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C2,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T2" s="5" t="str">
-        <f t="shared" ref="T2:T33" si="4">IF(EXACT(S2,E2),"ü","x")</f>
+      <c r="U2" s="5" t="str">
+        <f t="shared" ref="U2:U33" si="3">IF(EXACT(T2,E2),"ü","x")</f>
         <v>x</v>
       </c>
-      <c r="U2" s="4">
-        <f t="shared" ref="U2:U33" si="5">ROW(A2)</f>
+      <c r="V2" s="4">
+        <f t="shared" ref="V2:V33" si="4">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="V2" s="4">
-        <f t="shared" ref="V2:V33" si="6">IF(C2=C1,1,0)</f>
+      <c r="W2" s="4">
+        <f t="shared" ref="W2:W33" si="5">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="W2" s="4">
-        <f t="shared" ref="W2:W33" si="7">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="X2" s="4">
-        <f t="shared" ref="X2:X33" si="8">SUM(V2:W2)</f>
+        <f t="shared" ref="X2:X33" si="6">IF(C2=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" ref="Y2:Y33" si="7">SUM(W2:X2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2449,54 +2539,55 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N66" si="9">CONCATENATE("SIFERE - ",G3,F3," - ",I3,H3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="N3:N66" si="8">CONCATENATE("SIFERE - ",G3,F3," - ",I3,H3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>SIFERE -  -  - 20000000000 - Cliente</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O66" si="10">CONCATENATE("SIRCAR - JURISDICCION - ",G3,F3," - ",I3,H3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="O3:O66" si="9">CONCATENATE("SIRCAR - JURISDICCION - ",G3,F3," - ",I3,H3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>SIRCAR - JURISDICCION -  -  - 20000000000 - Cliente</v>
       </c>
       <c r="P3" s="2" t="str">
-        <f t="shared" ref="P3:P66" si="11">CONCATENATE("SIRCREB - ",G3,F3," - ",I3,H3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="P3:P66" si="10">CONCATENATE("SIRCREB - ",G3,F3," - ",I3,H3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>SIRCREB -  -  - 20000000000 - Cliente</v>
       </c>
       <c r="Q3" s="2" t="str">
-        <f t="shared" ref="Q3:Q66" si="12">CONCATENATE("SIRPEI - ",G3,F3," - ",I3,H3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="Q3:Q66" si="11">CONCATENATE("SIRPEI - ",G3,F3," - ",I3,H3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>SIRPEI -  -  - 20000000000 - Cliente</v>
       </c>
-      <c r="R3" s="5" t="str">
+      <c r="R3" s="2"/>
+      <c r="S3" s="5" t="str">
         <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S3" s="4" t="str">
+      <c r="T3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C3,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T3" s="5" t="str">
+      <c r="U3" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V3" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U3" s="4">
+        <v>3</v>
+      </c>
+      <c r="W3" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="V3" s="4">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W3" s="4">
+      <c r="Y3" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X3" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2521,54 +2612,55 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O4" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O4" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P4" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P4" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q4" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q4" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R4" s="5" t="str">
+      <c r="R4" s="2"/>
+      <c r="S4" s="5" t="str">
         <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S4" s="4" t="str">
+      <c r="T4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C4,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T4" s="5" t="str">
+      <c r="U4" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V4" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U4" s="4">
+        <v>4</v>
+      </c>
+      <c r="W4" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="V4" s="4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W4" s="4">
+      <c r="Y4" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X4" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2593,54 +2685,55 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O5" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O5" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P5" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P5" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q5" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q5" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R5" s="5" t="str">
+      <c r="R5" s="2"/>
+      <c r="S5" s="5" t="str">
         <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S5" s="4" t="str">
+      <c r="T5" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C5,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T5" s="5" t="str">
+      <c r="U5" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V5" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U5" s="4">
+        <v>5</v>
+      </c>
+      <c r="W5" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="V5" s="4">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W5" s="4">
+      <c r="Y5" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X5" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2665,54 +2758,55 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N6" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O6" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O6" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P6" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P6" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q6" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q6" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R6" s="5" t="str">
+      <c r="R6" s="2"/>
+      <c r="S6" s="5" t="str">
         <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S6" s="4" t="str">
+      <c r="T6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C6,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T6" s="5" t="str">
+      <c r="U6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V6" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U6" s="4">
+        <v>6</v>
+      </c>
+      <c r="W6" s="4">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W6" s="4">
+      <c r="Y6" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X6" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2737,54 +2831,55 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N7" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O7" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O7" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P7" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P7" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q7" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q7" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R7" s="5" t="str">
+      <c r="R7" s="2"/>
+      <c r="S7" s="5" t="str">
         <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S7" s="4" t="str">
+      <c r="T7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C7,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T7" s="5" t="str">
+      <c r="U7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V7" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U7" s="4">
+        <v>7</v>
+      </c>
+      <c r="W7" s="4">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="V7" s="4">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W7" s="4">
+      <c r="Y7" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2809,54 +2904,55 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N8" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O8" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O8" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P8" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P8" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q8" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q8" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R8" s="5" t="str">
+      <c r="R8" s="2"/>
+      <c r="S8" s="5" t="str">
         <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S8" s="4" t="str">
+      <c r="T8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C8,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T8" s="5" t="str">
+      <c r="U8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V8" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U8" s="4">
+        <v>8</v>
+      </c>
+      <c r="W8" s="4">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+      <c r="X8" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W8" s="4">
+      <c r="Y8" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X8" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2881,54 +2977,55 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N9" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O9" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O9" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P9" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P9" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q9" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q9" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R9" s="5" t="str">
+      <c r="R9" s="2"/>
+      <c r="S9" s="5" t="str">
         <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S9" s="4" t="str">
+      <c r="T9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C9,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T9" s="5" t="str">
+      <c r="U9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V9" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U9" s="4">
+        <v>9</v>
+      </c>
+      <c r="W9" s="4">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="X9" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X9" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2953,54 +3050,55 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N10" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O10" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O10" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P10" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P10" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q10" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q10" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R10" s="5" t="str">
+      <c r="R10" s="2"/>
+      <c r="S10" s="5" t="str">
         <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S10" s="4" t="str">
+      <c r="T10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C10,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T10" s="5" t="str">
+      <c r="U10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V10" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U10" s="4">
+        <v>10</v>
+      </c>
+      <c r="W10" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W10" s="4">
+      <c r="Y10" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X10" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3025,54 +3123,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N11" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O11" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O11" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P11" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P11" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q11" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q11" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R11" s="5" t="str">
+      <c r="R11" s="2"/>
+      <c r="S11" s="5" t="str">
         <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S11" s="4" t="str">
+      <c r="T11" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C11,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T11" s="5" t="str">
+      <c r="U11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V11" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U11" s="4">
+        <v>11</v>
+      </c>
+      <c r="W11" s="4">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="V11" s="4">
+        <v>1</v>
+      </c>
+      <c r="X11" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W11" s="4">
+      <c r="Y11" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3097,54 +3196,55 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N12" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O12" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O12" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P12" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P12" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q12" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q12" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R12" s="5" t="str">
+      <c r="R12" s="2"/>
+      <c r="S12" s="5" t="str">
         <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S12" s="4" t="str">
+      <c r="T12" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C12,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T12" s="5" t="str">
+      <c r="U12" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V12" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U12" s="4">
+        <v>12</v>
+      </c>
+      <c r="W12" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W12" s="4">
+      <c r="Y12" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3169,54 +3269,55 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N13" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O13" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O13" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P13" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P13" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q13" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q13" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R13" s="5" t="str">
+      <c r="R13" s="2"/>
+      <c r="S13" s="5" t="str">
         <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S13" s="4" t="str">
+      <c r="T13" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C13,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T13" s="5" t="str">
+      <c r="U13" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V13" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U13" s="4">
+        <v>13</v>
+      </c>
+      <c r="W13" s="4">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W13" s="4">
+      <c r="Y13" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3241,54 +3342,55 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N14" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O14" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O14" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P14" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P14" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q14" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q14" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R14" s="5" t="str">
+      <c r="R14" s="2"/>
+      <c r="S14" s="5" t="str">
         <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S14" s="4" t="str">
+      <c r="T14" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C14,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T14" s="5" t="str">
+      <c r="U14" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V14" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U14" s="4">
+        <v>14</v>
+      </c>
+      <c r="W14" s="4">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W14" s="4">
+      <c r="Y14" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X14" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3313,54 +3415,55 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N15" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O15" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O15" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P15" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P15" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q15" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q15" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R15" s="5" t="str">
+      <c r="R15" s="2"/>
+      <c r="S15" s="5" t="str">
         <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S15" s="4" t="str">
+      <c r="T15" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C15,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T15" s="5" t="str">
+      <c r="U15" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V15" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U15" s="4">
+        <v>15</v>
+      </c>
+      <c r="W15" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="V15" s="4">
+        <v>1</v>
+      </c>
+      <c r="X15" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W15" s="4">
+      <c r="Y15" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X15" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3385,54 +3488,55 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N16" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O16" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O16" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P16" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P16" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q16" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q16" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R16" s="5" t="str">
+      <c r="R16" s="2"/>
+      <c r="S16" s="5" t="str">
         <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S16" s="4" t="str">
+      <c r="T16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C16,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T16" s="5" t="str">
+      <c r="U16" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V16" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U16" s="4">
+        <v>16</v>
+      </c>
+      <c r="W16" s="4">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W16" s="4">
+      <c r="Y16" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X16" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3457,54 +3561,55 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O17" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O17" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P17" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P17" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q17" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q17" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R17" s="5" t="str">
+      <c r="R17" s="2"/>
+      <c r="S17" s="5" t="str">
         <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S17" s="4" t="str">
+      <c r="T17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C17,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T17" s="5" t="str">
+      <c r="U17" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V17" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U17" s="4">
+        <v>17</v>
+      </c>
+      <c r="W17" s="4">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+      <c r="X17" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W17" s="4">
+      <c r="Y17" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X17" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3529,54 +3634,55 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N18" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O18" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O18" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P18" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P18" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q18" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q18" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R18" s="5" t="str">
+      <c r="R18" s="2"/>
+      <c r="S18" s="5" t="str">
         <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S18" s="4" t="str">
+      <c r="T18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C18,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T18" s="5" t="str">
+      <c r="U18" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V18" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U18" s="4">
+        <v>18</v>
+      </c>
+      <c r="W18" s="4">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+      <c r="X18" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W18" s="4">
+      <c r="Y18" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X18" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3601,54 +3707,55 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N19" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O19" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O19" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P19" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P19" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q19" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q19" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R19" s="5" t="str">
+      <c r="R19" s="2"/>
+      <c r="S19" s="5" t="str">
         <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S19" s="4" t="str">
+      <c r="T19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C19,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T19" s="5" t="str">
+      <c r="U19" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V19" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U19" s="4">
+        <v>19</v>
+      </c>
+      <c r="W19" s="4">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W19" s="4">
+      <c r="Y19" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X19" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3673,54 +3780,55 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N20" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O20" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O20" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P20" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P20" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q20" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q20" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R20" s="5" t="str">
+      <c r="R20" s="2"/>
+      <c r="S20" s="5" t="str">
         <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S20" s="4" t="str">
+      <c r="T20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C20,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T20" s="5" t="str">
+      <c r="U20" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V20" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U20" s="4">
+        <v>20</v>
+      </c>
+      <c r="W20" s="4">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="V20" s="4">
+        <v>1</v>
+      </c>
+      <c r="X20" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W20" s="4">
+      <c r="Y20" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X20" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3745,54 +3853,55 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N21" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O21" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O21" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P21" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P21" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q21" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q21" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R21" s="5" t="str">
+      <c r="R21" s="2"/>
+      <c r="S21" s="5" t="str">
         <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S21" s="4" t="str">
+      <c r="T21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C21,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T21" s="5" t="str">
+      <c r="U21" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V21" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U21" s="4">
+        <v>21</v>
+      </c>
+      <c r="W21" s="4">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W21" s="4">
+      <c r="Y21" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X21" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3817,54 +3926,55 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N22" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O22" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O22" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P22" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P22" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q22" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q22" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R22" s="5" t="str">
+      <c r="R22" s="2"/>
+      <c r="S22" s="5" t="str">
         <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S22" s="4" t="str">
+      <c r="T22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C22,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T22" s="5" t="str">
+      <c r="U22" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V22" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U22" s="4">
+        <v>22</v>
+      </c>
+      <c r="W22" s="4">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+      <c r="X22" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W22" s="4">
+      <c r="Y22" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X22" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3889,54 +3999,55 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N23" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O23" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O23" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P23" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P23" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q23" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q23" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R23" s="5" t="str">
+      <c r="R23" s="2"/>
+      <c r="S23" s="5" t="str">
         <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S23" s="4" t="str">
+      <c r="T23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C23,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T23" s="5" t="str">
+      <c r="U23" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V23" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U23" s="4">
+        <v>23</v>
+      </c>
+      <c r="W23" s="4">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+      <c r="X23" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W23" s="4">
+      <c r="Y23" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X23" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3961,54 +4072,55 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N24" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O24" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O24" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P24" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P24" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q24" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q24" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R24" s="5" t="str">
+      <c r="R24" s="2"/>
+      <c r="S24" s="5" t="str">
         <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S24" s="4" t="str">
+      <c r="T24" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C24,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T24" s="5" t="str">
+      <c r="U24" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V24" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U24" s="4">
+        <v>24</v>
+      </c>
+      <c r="W24" s="4">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="V24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W24" s="4">
+      <c r="Y24" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X24" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4033,54 +4145,55 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N25" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O25" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O25" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P25" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P25" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q25" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q25" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R25" s="5" t="str">
+      <c r="R25" s="2"/>
+      <c r="S25" s="5" t="str">
         <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S25" s="4" t="str">
+      <c r="T25" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C25,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T25" s="5" t="str">
+      <c r="U25" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V25" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U25" s="4">
+        <v>25</v>
+      </c>
+      <c r="W25" s="4">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="V25" s="4">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W25" s="4">
+      <c r="Y25" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X25" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4105,54 +4218,55 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N26" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O26" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O26" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P26" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P26" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q26" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q26" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R26" s="5" t="str">
+      <c r="R26" s="2"/>
+      <c r="S26" s="5" t="str">
         <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S26" s="4" t="str">
+      <c r="T26" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C26,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T26" s="5" t="str">
+      <c r="U26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V26" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U26" s="4">
+        <v>26</v>
+      </c>
+      <c r="W26" s="4">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="V26" s="4">
+        <v>1</v>
+      </c>
+      <c r="X26" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W26" s="4">
+      <c r="Y26" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X26" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4177,54 +4291,55 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N27" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O27" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O27" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P27" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P27" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q27" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q27" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R27" s="5" t="str">
+      <c r="R27" s="2"/>
+      <c r="S27" s="5" t="str">
         <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S27" s="4" t="str">
+      <c r="T27" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C27,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T27" s="5" t="str">
+      <c r="U27" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V27" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U27" s="4">
+        <v>27</v>
+      </c>
+      <c r="W27" s="4">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="V27" s="4">
+        <v>1</v>
+      </c>
+      <c r="X27" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W27" s="4">
+      <c r="Y27" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X27" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4249,54 +4364,55 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N28" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O28" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O28" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P28" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P28" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q28" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q28" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R28" s="5" t="str">
+      <c r="R28" s="2"/>
+      <c r="S28" s="5" t="str">
         <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S28" s="4" t="str">
+      <c r="T28" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C28,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T28" s="5" t="str">
+      <c r="U28" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V28" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U28" s="4">
+        <v>28</v>
+      </c>
+      <c r="W28" s="4">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="V28" s="4">
+        <v>1</v>
+      </c>
+      <c r="X28" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W28" s="4">
+      <c r="Y28" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X28" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4321,54 +4437,55 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P29" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q29" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T29" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C29,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U29" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="N29" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O29" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q29" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S29" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C29,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T29" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U29" s="4">
+      <c r="W29" s="4">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="V29" s="4">
+        <v>1</v>
+      </c>
+      <c r="X29" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W29" s="4">
+      <c r="Y29" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X29" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4393,54 +4510,55 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N30" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O30" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O30" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P30" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P30" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q30" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q30" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R30" s="5" t="str">
+      <c r="R30" s="2"/>
+      <c r="S30" s="5" t="str">
         <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S30" s="4" t="str">
+      <c r="T30" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C30,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T30" s="5" t="str">
+      <c r="U30" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V30" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U30" s="4">
+        <v>30</v>
+      </c>
+      <c r="W30" s="4">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="V30" s="4">
+        <v>1</v>
+      </c>
+      <c r="X30" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W30" s="4">
+      <c r="Y30" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X30" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4465,54 +4583,55 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N31" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O31" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O31" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P31" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P31" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q31" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q31" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R31" s="5" t="str">
+      <c r="R31" s="2"/>
+      <c r="S31" s="5" t="str">
         <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S31" s="4" t="str">
+      <c r="T31" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C31,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T31" s="5" t="str">
+      <c r="U31" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V31" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U31" s="4">
+        <v>31</v>
+      </c>
+      <c r="W31" s="4">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="V31" s="4">
+        <v>1</v>
+      </c>
+      <c r="X31" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W31" s="4">
+      <c r="Y31" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X31" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4537,54 +4656,55 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N32" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O32" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O32" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P32" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P32" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q32" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q32" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R32" s="5" t="str">
+      <c r="R32" s="2"/>
+      <c r="S32" s="5" t="str">
         <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S32" s="4" t="str">
+      <c r="T32" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C32,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T32" s="5" t="str">
+      <c r="U32" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V32" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U32" s="4">
+        <v>32</v>
+      </c>
+      <c r="W32" s="4">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="V32" s="4">
+        <v>1</v>
+      </c>
+      <c r="X32" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W32" s="4">
+      <c r="Y32" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X32" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4609,56 +4729,57 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N33" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O33" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O33" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P33" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P33" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q33" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q33" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R33" s="5" t="str">
+      <c r="R33" s="2"/>
+      <c r="S33" s="5" t="str">
         <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S33" s="4" t="str">
+      <c r="T33" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C33,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T33" s="5" t="str">
+      <c r="U33" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="V33" s="4">
         <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="U33" s="4">
+        <v>33</v>
+      </c>
+      <c r="W33" s="4">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="V33" s="4">
+        <v>1</v>
+      </c>
+      <c r="X33" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W33" s="4">
+      <c r="Y33" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X33" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="13">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="12">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="s">
@@ -4681,56 +4802,57 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N34" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O34" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O34" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P34" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P34" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q34" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q34" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T34" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C34,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U34" s="5" t="str">
+        <f t="shared" ref="U34:U65" si="13">IF(EXACT(T34,E34),"ü","x")</f>
+        <v>x</v>
+      </c>
+      <c r="V34" s="4">
+        <f t="shared" ref="V34:V69" si="14">ROW(A34)</f>
+        <v>34</v>
+      </c>
+      <c r="W34" s="4">
+        <f t="shared" ref="W34:W67" si="15">IF(C34=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X34" s="4">
+        <f t="shared" ref="X34:X67" si="16">IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="4">
+        <f t="shared" ref="Y34:Y65" si="17">SUM(W34:X34)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S34" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C34,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T34" s="5" t="str">
-        <f t="shared" ref="T34:T65" si="14">IF(EXACT(S34,E34),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="U34" s="4">
-        <f t="shared" ref="U34:U69" si="15">ROW(A34)</f>
-        <v>34</v>
-      </c>
-      <c r="V34" s="4">
-        <f t="shared" ref="V34:V67" si="16">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W34" s="4">
-        <f t="shared" ref="W34:W67" si="17">IF(C34=C35,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X34" s="4">
-        <f t="shared" ref="X34:X65" si="18">SUM(V34:W34)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B35" t="s">
@@ -4753,56 +4875,57 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N35" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O35" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O35" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P35" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P35" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q35" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q35" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T35" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C35,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U35" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V35" s="4">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="W35" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X35" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y35" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S35" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C35,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T35" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U35" s="4">
-        <f t="shared" si="15"/>
-        <v>35</v>
-      </c>
-      <c r="V35" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W35" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X35" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B36" t="s">
@@ -4825,56 +4948,57 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N36" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O36" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O36" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P36" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P36" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q36" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q36" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T36" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C36,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U36" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V36" s="4">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="W36" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X36" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S36" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C36,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T36" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U36" s="4">
-        <f t="shared" si="15"/>
-        <v>36</v>
-      </c>
-      <c r="V36" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W36" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X36" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -4897,56 +5021,57 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N37" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O37" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O37" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P37" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P37" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q37" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q37" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T37" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C37,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U37" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V37" s="4">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="W37" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X37" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y37" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S37" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C37,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T37" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U37" s="4">
-        <f t="shared" si="15"/>
-        <v>37</v>
-      </c>
-      <c r="V37" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W37" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X37" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B38" t="s">
@@ -4969,56 +5094,57 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N38" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O38" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O38" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P38" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P38" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q38" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q38" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T38" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C38,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U38" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="W38" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X38" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y38" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S38" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C38,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T38" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U38" s="4">
-        <f t="shared" si="15"/>
-        <v>38</v>
-      </c>
-      <c r="V38" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W38" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X38" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B39" t="s">
@@ -5041,56 +5167,57 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N39" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O39" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O39" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P39" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P39" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q39" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q39" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T39" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C39,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U39" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V39" s="4">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X39" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S39" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C39,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T39" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U39" s="4">
-        <f t="shared" si="15"/>
-        <v>39</v>
-      </c>
-      <c r="V39" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W39" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X39" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -5113,56 +5240,57 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N40" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O40" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O40" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P40" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P40" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q40" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q40" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T40" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C40,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U40" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V40" s="4">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X40" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y40" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S40" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C40,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T40" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U40" s="4">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-      <c r="V40" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W40" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X40" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B41" t="s">
@@ -5185,56 +5313,57 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N41" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O41" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O41" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P41" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P41" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q41" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q41" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T41" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C41,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U41" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V41" s="4">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X41" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S41" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C41,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T41" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U41" s="4">
-        <f t="shared" si="15"/>
-        <v>41</v>
-      </c>
-      <c r="V41" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W41" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X41" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -5257,56 +5386,57 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N42" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O42" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O42" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P42" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P42" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q42" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q42" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T42" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C42,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U42" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V42" s="4">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X42" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S42" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C42,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T42" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U42" s="4">
-        <f t="shared" si="15"/>
-        <v>42</v>
-      </c>
-      <c r="V42" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W42" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X42" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -5329,56 +5459,57 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N43" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O43" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O43" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P43" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P43" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q43" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q43" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T43" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C43,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U43" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V43" s="4">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="W43" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X43" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S43" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C43,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T43" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U43" s="4">
-        <f t="shared" si="15"/>
-        <v>43</v>
-      </c>
-      <c r="V43" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W43" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X43" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B44" t="s">
@@ -5401,56 +5532,57 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N44" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O44" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O44" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P44" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P44" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q44" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q44" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T44" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C44,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U44" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V44" s="4">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="W44" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X44" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y44" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S44" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C44,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T44" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U44" s="4">
-        <f t="shared" si="15"/>
-        <v>44</v>
-      </c>
-      <c r="V44" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W44" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X44" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B45" t="s">
@@ -5473,56 +5605,57 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N45" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O45" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O45" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P45" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P45" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q45" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q45" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T45" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C45,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U45" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V45" s="4">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="W45" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X45" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y45" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S45" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C45,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T45" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U45" s="4">
-        <f t="shared" si="15"/>
-        <v>45</v>
-      </c>
-      <c r="V45" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W45" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X45" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B46" t="s">
@@ -5545,56 +5678,57 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N46" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O46" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O46" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P46" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P46" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q46" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q46" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T46" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C46,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U46" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V46" s="4">
+        <f t="shared" si="14"/>
+        <v>46</v>
+      </c>
+      <c r="W46" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X46" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y46" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S46" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C46,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T46" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U46" s="4">
-        <f t="shared" si="15"/>
-        <v>46</v>
-      </c>
-      <c r="V46" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W46" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X46" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B47" t="s">
@@ -5617,56 +5751,57 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N47" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O47" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O47" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P47" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P47" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q47" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q47" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T47" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C47,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U47" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V47" s="4">
+        <f t="shared" si="14"/>
+        <v>47</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X47" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y47" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S47" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C47,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T47" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U47" s="4">
-        <f t="shared" si="15"/>
-        <v>47</v>
-      </c>
-      <c r="V47" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W47" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X47" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -5689,56 +5824,57 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N48" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O48" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O48" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P48" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P48" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q48" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q48" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T48" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C48,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U48" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V48" s="4">
+        <f t="shared" si="14"/>
+        <v>48</v>
+      </c>
+      <c r="W48" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X48" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y48" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S48" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C48,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T48" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U48" s="4">
-        <f t="shared" si="15"/>
-        <v>48</v>
-      </c>
-      <c r="V48" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W48" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X48" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -5761,56 +5897,57 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N49" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O49" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O49" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P49" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P49" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q49" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q49" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T49" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C49,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U49" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V49" s="4">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="W49" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X49" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y49" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S49" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C49,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T49" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U49" s="4">
-        <f t="shared" si="15"/>
-        <v>49</v>
-      </c>
-      <c r="V49" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W49" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X49" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -5833,56 +5970,57 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N50" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O50" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O50" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P50" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P50" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q50" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q50" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T50" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C50,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U50" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V50" s="4">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="W50" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X50" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y50" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S50" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C50,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T50" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U50" s="4">
-        <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="V50" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W50" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X50" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -5905,56 +6043,57 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N51" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O51" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P51" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P51" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q51" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q51" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T51" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C51,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U51" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V51" s="4">
+        <f t="shared" si="14"/>
+        <v>51</v>
+      </c>
+      <c r="W51" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X51" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y51" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S51" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C51,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T51" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U51" s="4">
-        <f t="shared" si="15"/>
-        <v>51</v>
-      </c>
-      <c r="V51" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W51" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X51" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B52" t="s">
@@ -5977,56 +6116,57 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N52" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O52" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O52" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P52" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P52" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q52" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q52" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T52" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C52,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U52" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V52" s="4">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="W52" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X52" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y52" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S52" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C52,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T52" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U52" s="4">
-        <f t="shared" si="15"/>
-        <v>52</v>
-      </c>
-      <c r="V52" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W52" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X52" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -6049,56 +6189,57 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N53" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O53" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O53" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P53" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P53" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q53" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q53" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T53" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C53,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U53" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V53" s="4">
+        <f t="shared" si="14"/>
+        <v>53</v>
+      </c>
+      <c r="W53" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X53" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y53" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S53" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C53,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T53" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U53" s="4">
-        <f t="shared" si="15"/>
-        <v>53</v>
-      </c>
-      <c r="V53" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W53" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X53" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B54" t="s">
@@ -6121,56 +6262,57 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N54" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O54" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O54" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P54" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P54" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q54" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q54" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T54" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C54,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U54" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V54" s="4">
+        <f t="shared" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="W54" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X54" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y54" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S54" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C54,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T54" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U54" s="4">
-        <f t="shared" si="15"/>
-        <v>54</v>
-      </c>
-      <c r="V54" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W54" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X54" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B55" t="s">
@@ -6193,56 +6335,57 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N55" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O55" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O55" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P55" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P55" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q55" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q55" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T55" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C55,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U55" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V55" s="4">
+        <f t="shared" si="14"/>
+        <v>55</v>
+      </c>
+      <c r="W55" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X55" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S55" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C55,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T55" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U55" s="4">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="V55" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W55" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X55" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B56" t="s">
@@ -6265,56 +6408,57 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N56" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O56" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O56" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P56" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P56" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q56" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q56" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T56" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C56,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U56" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V56" s="4">
+        <f t="shared" si="14"/>
+        <v>56</v>
+      </c>
+      <c r="W56" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X56" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y56" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S56" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C56,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T56" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U56" s="4">
-        <f t="shared" si="15"/>
-        <v>56</v>
-      </c>
-      <c r="V56" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W56" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X56" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B57" t="s">
@@ -6337,56 +6481,57 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N57" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O57" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O57" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P57" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P57" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q57" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q57" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T57" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C57,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U57" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V57" s="4">
+        <f t="shared" si="14"/>
+        <v>57</v>
+      </c>
+      <c r="W57" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X57" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y57" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S57" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C57,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T57" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U57" s="4">
-        <f t="shared" si="15"/>
-        <v>57</v>
-      </c>
-      <c r="V57" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W57" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X57" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B58" t="s">
@@ -6409,56 +6554,57 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N58" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O58" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O58" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P58" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P58" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q58" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q58" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T58" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C58,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U58" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V58" s="4">
+        <f t="shared" si="14"/>
+        <v>58</v>
+      </c>
+      <c r="W58" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X58" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y58" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S58" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C58,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T58" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U58" s="4">
-        <f t="shared" si="15"/>
-        <v>58</v>
-      </c>
-      <c r="V58" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W58" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X58" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -6481,56 +6627,57 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N59" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O59" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O59" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P59" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P59" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q59" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q59" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T59" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C59,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U59" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V59" s="4">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+      <c r="W59" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X59" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y59" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S59" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C59,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T59" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U59" s="4">
-        <f t="shared" si="15"/>
-        <v>59</v>
-      </c>
-      <c r="V59" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W59" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X59" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -6553,56 +6700,57 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N60" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O60" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O60" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P60" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P60" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q60" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q60" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T60" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C60,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U60" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V60" s="4">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="W60" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X60" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y60" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S60" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C60,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T60" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U60" s="4">
-        <f t="shared" si="15"/>
-        <v>60</v>
-      </c>
-      <c r="V60" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W60" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X60" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -6625,56 +6773,57 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N61" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O61" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O61" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P61" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P61" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q61" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q61" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T61" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C61,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U61" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V61" s="4">
+        <f t="shared" si="14"/>
+        <v>61</v>
+      </c>
+      <c r="W61" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X61" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y61" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S61" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C61,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T61" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U61" s="4">
-        <f t="shared" si="15"/>
-        <v>61</v>
-      </c>
-      <c r="V61" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W61" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X61" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -6697,56 +6846,57 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N62" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O62" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O62" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P62" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P62" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q62" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q62" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T62" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C62,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U62" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V62" s="4">
+        <f t="shared" si="14"/>
+        <v>62</v>
+      </c>
+      <c r="W62" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X62" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y62" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S62" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C62,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T62" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U62" s="4">
-        <f t="shared" si="15"/>
-        <v>62</v>
-      </c>
-      <c r="V62" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W62" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X62" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -6769,56 +6919,57 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N63" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O63" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O63" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P63" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P63" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q63" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q63" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T63" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C63,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U63" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V63" s="4">
+        <f t="shared" si="14"/>
+        <v>63</v>
+      </c>
+      <c r="W63" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X63" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y63" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S63" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C63,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T63" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U63" s="4">
-        <f t="shared" si="15"/>
-        <v>63</v>
-      </c>
-      <c r="V63" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W63" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X63" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -6841,56 +6992,57 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N64" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O64" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O64" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P64" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P64" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q64" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q64" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R64" s="2"/>
+      <c r="S64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T64" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C64,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U64" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V64" s="4">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="W64" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X64" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y64" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S64" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C64,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T64" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U64" s="4">
-        <f t="shared" si="15"/>
-        <v>64</v>
-      </c>
-      <c r="V64" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W64" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X64" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B65" t="s">
@@ -6913,56 +7065,57 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N65" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O65" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O65" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P65" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P65" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q65" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q65" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T65" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C65,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U65" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="V65" s="4">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="W65" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X65" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y65" s="4">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S65" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C65,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T65" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>x</v>
-      </c>
-      <c r="U65" s="4">
-        <f t="shared" si="15"/>
-        <v>65</v>
-      </c>
-      <c r="V65" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W65" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X65" s="4">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B66" t="s">
@@ -6985,56 +7138,57 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N66" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O66" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O66" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P66" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P66" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q66" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q66" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T66" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C66,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U66" s="5" t="str">
+        <f t="shared" ref="U66:U69" si="18">IF(EXACT(T66,E66),"ü","x")</f>
+        <v>x</v>
+      </c>
+      <c r="V66" s="4">
+        <f t="shared" si="14"/>
+        <v>66</v>
+      </c>
+      <c r="W66" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X66" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y66" s="4">
+        <f t="shared" ref="Y66:Y69" si="19">SUM(W66:X66)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S66" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C66,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T66" s="5" t="str">
-        <f t="shared" ref="T66:T97" si="19">IF(EXACT(S66,E66),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="U66" s="4">
-        <f t="shared" si="15"/>
-        <v>66</v>
-      </c>
-      <c r="V66" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W66" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X66" s="4">
-        <f t="shared" ref="X66:X69" si="20">SUM(V66:W66)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="str">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -7057,56 +7211,57 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67:N69" si="21">CONCATENATE("SIFERE - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="N67:N69" si="20">CONCATENATE("SIFERE - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>SIFERE -  -  - 30000000000 - Cliente</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" ref="O67:O69" si="22">CONCATENATE("SIRCAR - JURISDICCION - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="O67:O69" si="21">CONCATENATE("SIRCAR - JURISDICCION - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
       </c>
       <c r="P67" s="2" t="str">
-        <f t="shared" ref="P67:P69" si="23">CONCATENATE("SIRCREB - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="P67:P69" si="22">CONCATENATE("SIRCREB - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>SIRCREB -  -  - 30000000000 - Cliente</v>
       </c>
       <c r="Q67" s="2" t="str">
-        <f t="shared" ref="Q67:Q69" si="24">CONCATENATE("SIRPEI - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="Q67:Q69" si="23">CONCATENATE("SIRPEI - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R67" s="5" t="str">
+      <c r="R67" s="2"/>
+      <c r="S67" s="5" t="str">
         <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S67" s="4" t="str">
+      <c r="T67" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C67,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T67" s="5" t="str">
+      <c r="U67" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>x</v>
+      </c>
+      <c r="V67" s="4">
+        <f t="shared" si="14"/>
+        <v>67</v>
+      </c>
+      <c r="W67" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X67" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y67" s="4">
         <f t="shared" si="19"/>
-        <v>x</v>
-      </c>
-      <c r="U67" s="4">
-        <f t="shared" si="15"/>
-        <v>67</v>
-      </c>
-      <c r="V67" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W67" s="4">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="X67" s="4">
-        <f t="shared" si="20"/>
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B68" t="s">
@@ -7129,56 +7284,57 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N68" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O68" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O68" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P68" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P68" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q68" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q68" s="2" t="str">
-        <f t="shared" si="24"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R68" s="5" t="str">
+      <c r="R68" s="2"/>
+      <c r="S68" s="5" t="str">
         <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="S68" s="4" t="str">
+      <c r="T68" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C68,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T68" s="5" t="str">
+      <c r="U68" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>x</v>
+      </c>
+      <c r="V68" s="4">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="W68" s="4">
+        <f t="shared" ref="W68:W69" si="24">IF(C68=C67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X68" s="4">
+        <f t="shared" ref="X68:X69" si="25">IF(C68=C69,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y68" s="4">
         <f t="shared" si="19"/>
-        <v>x</v>
-      </c>
-      <c r="U68" s="4">
-        <f t="shared" si="15"/>
-        <v>68</v>
-      </c>
-      <c r="V68" s="4">
-        <f t="shared" ref="V68:V69" si="25">IF(C68=C67,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W68" s="4">
-        <f t="shared" ref="W68:W69" si="26">IF(C68=C69,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X68" s="4">
-        <f t="shared" si="20"/>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -7201,56 +7357,57 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N69" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O69" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O69" s="2" t="str">
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P69" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P69" s="2" t="str">
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q69" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q69" s="2" t="str">
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="T69" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C69,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U69" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>x</v>
+      </c>
+      <c r="V69" s="4">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="W69" s="4">
         <f t="shared" si="24"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="S69" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C69,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="T69" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="X69" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="4">
         <f t="shared" si="19"/>
-        <v>x</v>
-      </c>
-      <c r="U69" s="4">
-        <f t="shared" si="15"/>
-        <v>69</v>
-      </c>
-      <c r="V69" s="4">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="W69" s="4">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="4">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U69">
+  <autoFilter ref="A1:Y69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>
@@ -7261,5 +7418,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Listado SIFERE.xlsx
+++ b/Listado SIFERE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-RETPER-SIFERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F95668-D5DF-4B8E-8544-8255072B4E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6339772C-C9C3-4761-924F-B001509286A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$Y$69</definedName>
@@ -306,396 +305,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Control"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>AUX</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Descargado</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2"/>
-          <cell r="E2"/>
-        </row>
-        <row r="3">
-          <cell r="D3"/>
-          <cell r="E3"/>
-        </row>
-        <row r="4">
-          <cell r="D4"/>
-          <cell r="E4"/>
-        </row>
-        <row r="5">
-          <cell r="D5"/>
-          <cell r="E5"/>
-        </row>
-        <row r="6">
-          <cell r="D6"/>
-          <cell r="E6"/>
-        </row>
-        <row r="7">
-          <cell r="D7"/>
-          <cell r="E7"/>
-        </row>
-        <row r="8">
-          <cell r="D8"/>
-          <cell r="E8"/>
-        </row>
-        <row r="9">
-          <cell r="D9"/>
-          <cell r="E9"/>
-        </row>
-        <row r="10">
-          <cell r="D10"/>
-          <cell r="E10"/>
-        </row>
-        <row r="11">
-          <cell r="D11"/>
-          <cell r="E11"/>
-        </row>
-        <row r="12">
-          <cell r="D12"/>
-          <cell r="E12"/>
-        </row>
-        <row r="13">
-          <cell r="D13"/>
-          <cell r="E13"/>
-        </row>
-        <row r="14">
-          <cell r="D14"/>
-          <cell r="E14"/>
-        </row>
-        <row r="15">
-          <cell r="D15"/>
-          <cell r="E15"/>
-        </row>
-        <row r="16">
-          <cell r="D16"/>
-          <cell r="E16"/>
-        </row>
-        <row r="17">
-          <cell r="D17"/>
-          <cell r="E17"/>
-        </row>
-        <row r="18">
-          <cell r="D18"/>
-          <cell r="E18"/>
-        </row>
-        <row r="19">
-          <cell r="D19"/>
-          <cell r="E19"/>
-        </row>
-        <row r="20">
-          <cell r="D20"/>
-          <cell r="E20"/>
-        </row>
-        <row r="21">
-          <cell r="D21"/>
-          <cell r="E21"/>
-        </row>
-        <row r="22">
-          <cell r="D22"/>
-          <cell r="E22"/>
-        </row>
-        <row r="23">
-          <cell r="D23"/>
-          <cell r="E23"/>
-        </row>
-        <row r="24">
-          <cell r="D24"/>
-          <cell r="E24"/>
-        </row>
-        <row r="25">
-          <cell r="D25"/>
-          <cell r="E25"/>
-        </row>
-        <row r="26">
-          <cell r="D26"/>
-          <cell r="E26"/>
-        </row>
-        <row r="27">
-          <cell r="D27"/>
-          <cell r="E27"/>
-        </row>
-        <row r="28">
-          <cell r="D28"/>
-          <cell r="E28"/>
-        </row>
-        <row r="29">
-          <cell r="D29"/>
-          <cell r="E29"/>
-        </row>
-        <row r="30">
-          <cell r="D30"/>
-          <cell r="E30"/>
-        </row>
-        <row r="31">
-          <cell r="D31"/>
-          <cell r="E31"/>
-        </row>
-        <row r="32">
-          <cell r="D32"/>
-          <cell r="E32"/>
-        </row>
-        <row r="33">
-          <cell r="D33"/>
-          <cell r="E33"/>
-        </row>
-        <row r="34">
-          <cell r="D34"/>
-          <cell r="E34"/>
-        </row>
-        <row r="35">
-          <cell r="D35"/>
-          <cell r="E35"/>
-        </row>
-        <row r="36">
-          <cell r="D36"/>
-          <cell r="E36"/>
-        </row>
-        <row r="37">
-          <cell r="D37"/>
-          <cell r="E37"/>
-        </row>
-        <row r="38">
-          <cell r="D38"/>
-          <cell r="E38"/>
-        </row>
-        <row r="39">
-          <cell r="D39"/>
-          <cell r="E39"/>
-        </row>
-        <row r="40">
-          <cell r="D40"/>
-          <cell r="E40"/>
-        </row>
-        <row r="41">
-          <cell r="D41"/>
-          <cell r="E41"/>
-        </row>
-        <row r="42">
-          <cell r="D42"/>
-          <cell r="E42"/>
-        </row>
-        <row r="43">
-          <cell r="D43"/>
-          <cell r="E43"/>
-        </row>
-        <row r="44">
-          <cell r="D44"/>
-          <cell r="E44"/>
-        </row>
-        <row r="45">
-          <cell r="D45"/>
-          <cell r="E45"/>
-        </row>
-        <row r="46">
-          <cell r="D46"/>
-          <cell r="E46"/>
-        </row>
-        <row r="47">
-          <cell r="D47"/>
-          <cell r="E47"/>
-        </row>
-        <row r="48">
-          <cell r="D48"/>
-          <cell r="E48"/>
-        </row>
-        <row r="49">
-          <cell r="D49"/>
-          <cell r="E49"/>
-        </row>
-        <row r="50">
-          <cell r="D50"/>
-          <cell r="E50"/>
-        </row>
-        <row r="51">
-          <cell r="D51"/>
-          <cell r="E51"/>
-        </row>
-        <row r="52">
-          <cell r="D52"/>
-          <cell r="E52"/>
-        </row>
-        <row r="53">
-          <cell r="D53"/>
-          <cell r="E53"/>
-        </row>
-        <row r="54">
-          <cell r="D54"/>
-          <cell r="E54"/>
-        </row>
-        <row r="55">
-          <cell r="D55"/>
-          <cell r="E55"/>
-        </row>
-        <row r="56">
-          <cell r="D56"/>
-          <cell r="E56"/>
-        </row>
-        <row r="57">
-          <cell r="D57"/>
-          <cell r="E57"/>
-        </row>
-        <row r="58">
-          <cell r="D58"/>
-          <cell r="E58"/>
-        </row>
-        <row r="59">
-          <cell r="D59"/>
-          <cell r="E59"/>
-        </row>
-        <row r="60">
-          <cell r="D60"/>
-          <cell r="E60"/>
-        </row>
-        <row r="61">
-          <cell r="D61"/>
-          <cell r="E61"/>
-        </row>
-        <row r="62">
-          <cell r="D62"/>
-          <cell r="E62"/>
-        </row>
-        <row r="63">
-          <cell r="D63"/>
-          <cell r="E63"/>
-        </row>
-        <row r="64">
-          <cell r="D64"/>
-          <cell r="E64"/>
-        </row>
-        <row r="65">
-          <cell r="D65"/>
-          <cell r="E65"/>
-        </row>
-        <row r="66">
-          <cell r="D66"/>
-          <cell r="E66"/>
-        </row>
-        <row r="67">
-          <cell r="D67"/>
-          <cell r="E67"/>
-        </row>
-        <row r="68">
-          <cell r="D68"/>
-          <cell r="E68"/>
-        </row>
-        <row r="69">
-          <cell r="D69"/>
-          <cell r="E69"/>
-        </row>
-        <row r="70">
-          <cell r="D70"/>
-          <cell r="E70"/>
-        </row>
-        <row r="71">
-          <cell r="D71"/>
-          <cell r="E71"/>
-        </row>
-        <row r="72">
-          <cell r="D72"/>
-          <cell r="E72"/>
-        </row>
-        <row r="73">
-          <cell r="D73"/>
-          <cell r="E73"/>
-        </row>
-        <row r="74">
-          <cell r="D74"/>
-          <cell r="E74"/>
-        </row>
-        <row r="75">
-          <cell r="D75"/>
-          <cell r="E75"/>
-        </row>
-        <row r="76">
-          <cell r="D76"/>
-          <cell r="E76"/>
-        </row>
-        <row r="77">
-          <cell r="D77"/>
-          <cell r="E77"/>
-        </row>
-        <row r="78">
-          <cell r="D78"/>
-          <cell r="E78"/>
-        </row>
-        <row r="79">
-          <cell r="D79"/>
-          <cell r="E79"/>
-        </row>
-        <row r="80">
-          <cell r="D80"/>
-          <cell r="E80"/>
-        </row>
-        <row r="81">
-          <cell r="D81"/>
-          <cell r="E81"/>
-        </row>
-        <row r="82">
-          <cell r="D82"/>
-          <cell r="E82"/>
-        </row>
-        <row r="83">
-          <cell r="D83"/>
-          <cell r="E83"/>
-        </row>
-        <row r="84">
-          <cell r="D84"/>
-          <cell r="E84"/>
-        </row>
-        <row r="85">
-          <cell r="D85"/>
-          <cell r="E85"/>
-        </row>
-        <row r="86">
-          <cell r="D86"/>
-          <cell r="E86"/>
-        </row>
-        <row r="87">
-          <cell r="D87"/>
-          <cell r="E87"/>
-        </row>
-        <row r="88">
-          <cell r="D88"/>
-          <cell r="E88"/>
-        </row>
-        <row r="89">
-          <cell r="D89"/>
-          <cell r="E89"/>
-        </row>
-        <row r="90">
-          <cell r="D90"/>
-          <cell r="E90"/>
-        </row>
-        <row r="91">
-          <cell r="D91"/>
-          <cell r="E91"/>
-        </row>
-        <row r="92">
-          <cell r="D92"/>
-          <cell r="E92"/>
-        </row>
-        <row r="93">
-          <cell r="D93"/>
-          <cell r="E93"/>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Hoja1"/>
       <sheetName val="Hoja2"/>
     </sheetNames>
@@ -2059,10 +1668,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2332,7 +1937,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,12 +2089,9 @@
         <f>CONCATENATE("SIRTAC - ",G2,F2," - ",I2,H2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>SIRTAC - 202405 - 202405 - 20000000000 - Cliente</v>
       </c>
-      <c r="S2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="S2" s="5"/>
       <c r="T2" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C2,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C2,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U2" s="5" t="str">
@@ -2557,13 +2159,13 @@
         <f t="shared" ref="Q3:Q66" si="11">CONCATENATE("SIRPEI - ",G3,F3," - ",I3,H3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>SIRPEI -  -  - 20000000000 - Cliente</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R3" s="2" t="str">
+        <f t="shared" ref="R3:R66" si="12">CONCATENATE("SIRTAC - ",G3,F3," - ",I3,H3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <v>SIRTAC -  -  - 20000000000 - Cliente</v>
+      </c>
+      <c r="S3" s="5"/>
       <c r="T3" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C3,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C3,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U3" s="5" t="str">
@@ -2630,13 +2232,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R4" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S4" s="5"/>
       <c r="T4" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C4,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C4,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U4" s="5" t="str">
@@ -2703,13 +2305,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R5" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S5" s="5"/>
       <c r="T5" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C5,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C5,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U5" s="5" t="str">
@@ -2776,13 +2378,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R6" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S6" s="5"/>
       <c r="T6" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C6,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C6,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U6" s="5" t="str">
@@ -2849,13 +2451,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R7" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S7" s="5"/>
       <c r="T7" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C7,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C7,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U7" s="5" t="str">
@@ -2922,13 +2524,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R8" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S8" s="5"/>
       <c r="T8" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C8,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C8,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U8" s="5" t="str">
@@ -2995,13 +2597,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R9" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S9" s="5"/>
       <c r="T9" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C9,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C9,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U9" s="5" t="str">
@@ -3068,13 +2670,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R10" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S10" s="5"/>
       <c r="T10" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C10,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C10,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U10" s="5" t="str">
@@ -3141,13 +2743,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S11" s="5"/>
       <c r="T11" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C11,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C11,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U11" s="5" t="str">
@@ -3214,13 +2816,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S12" s="5"/>
       <c r="T12" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C12,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C12,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U12" s="5" t="str">
@@ -3287,13 +2889,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R13" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S13" s="5"/>
       <c r="T13" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C13,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C13,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U13" s="5" t="str">
@@ -3360,13 +2962,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R14" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S14" s="5"/>
       <c r="T14" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C14,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C14,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U14" s="5" t="str">
@@ -3433,13 +3035,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R15" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S15" s="5"/>
       <c r="T15" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C15,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C15,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U15" s="5" t="str">
@@ -3506,13 +3108,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R16" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S16" s="5"/>
       <c r="T16" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C16,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C16,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U16" s="5" t="str">
@@ -3579,13 +3181,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R17" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S17" s="5"/>
       <c r="T17" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C17,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C17,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U17" s="5" t="str">
@@ -3652,13 +3254,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R18" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S18" s="5"/>
       <c r="T18" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C18,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C18,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U18" s="5" t="str">
@@ -3725,13 +3327,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R19" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S19" s="5"/>
       <c r="T19" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C19,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C19,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U19" s="5" t="str">
@@ -3798,13 +3400,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R20" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S20" s="5"/>
       <c r="T20" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C20,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C20,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U20" s="5" t="str">
@@ -3871,13 +3473,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R21" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S21" s="5"/>
       <c r="T21" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C21,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C21,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U21" s="5" t="str">
@@ -3944,13 +3546,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R22" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S22" s="5"/>
       <c r="T22" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C22,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C22,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U22" s="5" t="str">
@@ -4017,13 +3619,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R23" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S23" s="5"/>
       <c r="T23" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C23,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C23,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U23" s="5" t="str">
@@ -4090,13 +3692,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R24" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S24" s="5"/>
       <c r="T24" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C24,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C24,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U24" s="5" t="str">
@@ -4163,13 +3765,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R25" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S25" s="5"/>
       <c r="T25" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C25,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C25,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U25" s="5" t="str">
@@ -4236,13 +3838,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R26" s="2"/>
-      <c r="S26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R26" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S26" s="5"/>
       <c r="T26" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C26,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C26,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U26" s="5" t="str">
@@ -4309,13 +3911,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R27" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S27" s="5"/>
       <c r="T27" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C27,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C27,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U27" s="5" t="str">
@@ -4382,13 +3984,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R28" s="2"/>
-      <c r="S28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R28" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S28" s="5"/>
       <c r="T28" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C28,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C28,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U28" s="5" t="str">
@@ -4455,13 +4057,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R29" s="2"/>
-      <c r="S29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R29" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S29" s="5"/>
       <c r="T29" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C29,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C29,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U29" s="5" t="str">
@@ -4528,13 +4130,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R30" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S30" s="5"/>
       <c r="T30" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C30,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C30,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U30" s="5" t="str">
@@ -4601,13 +4203,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R31" s="2"/>
-      <c r="S31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R31" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S31" s="5"/>
       <c r="T31" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C31,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C31,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U31" s="5" t="str">
@@ -4674,13 +4276,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R32" s="2"/>
-      <c r="S32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R32" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S32" s="5"/>
       <c r="T32" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C32,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C32,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U32" s="5" t="str">
@@ -4747,13 +4349,13 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R33" s="2"/>
-      <c r="S33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
+      <c r="R33" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S33" s="5"/>
       <c r="T33" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C33,[2]Hoja1!$J:$L,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(C33,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="U33" s="5" t="str">
@@ -4779,7 +4381,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="12">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="13">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="s">
@@ -4820,39 +4422,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R34" s="2"/>
-      <c r="S34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R34" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S34" s="5"/>
+      <c r="T34" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C34,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T34" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C34,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U34" s="5" t="str">
-        <f t="shared" ref="U34:U65" si="13">IF(EXACT(T34,E34),"ü","x")</f>
+        <f t="shared" ref="U34:U65" si="14">IF(EXACT(T34,E34),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="V34" s="4">
-        <f t="shared" ref="V34:V69" si="14">ROW(A34)</f>
+        <f t="shared" ref="V34:V69" si="15">ROW(A34)</f>
         <v>34</v>
       </c>
       <c r="W34" s="4">
-        <f t="shared" ref="W34:W67" si="15">IF(C34=C33,1,0)</f>
+        <f t="shared" ref="W34:W67" si="16">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="X34" s="4">
-        <f t="shared" ref="X34:X67" si="16">IF(C34=C35,1,0)</f>
+        <f t="shared" ref="X34:X67" si="17">IF(C34=C35,1,0)</f>
         <v>1</v>
       </c>
       <c r="Y34" s="4">
-        <f t="shared" ref="Y34:Y65" si="17">SUM(W34:X34)</f>
+        <f t="shared" ref="Y34:Y65" si="18">SUM(W34:X34)</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B35" t="s">
@@ -4893,39 +4495,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R35" s="2"/>
-      <c r="S35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R35" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S35" s="5"/>
+      <c r="T35" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C35,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T35" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C35,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U35" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V35" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="W35" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X35" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y35" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B36" t="s">
@@ -4966,39 +4568,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R36" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S36" s="5"/>
+      <c r="T36" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C36,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T36" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C36,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U36" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X36" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y36" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -5039,39 +4641,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R37" s="2"/>
-      <c r="S37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R37" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S37" s="5"/>
+      <c r="T37" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C37,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T37" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C37,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U37" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X37" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B38" t="s">
@@ -5112,39 +4714,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R38" s="2"/>
-      <c r="S38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R38" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S38" s="5"/>
+      <c r="T38" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C38,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T38" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C38,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U38" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V38" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="W38" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y38" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B39" t="s">
@@ -5185,39 +4787,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R39" s="2"/>
-      <c r="S39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R39" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S39" s="5"/>
+      <c r="T39" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C39,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T39" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C39,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U39" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V39" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X39" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y39" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -5258,39 +4860,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R40" s="2"/>
-      <c r="S40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R40" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S40" s="5"/>
+      <c r="T40" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C40,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T40" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C40,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U40" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V40" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="W40" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X40" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y40" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B41" t="s">
@@ -5331,39 +4933,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R41" s="2"/>
-      <c r="S41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R41" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S41" s="5"/>
+      <c r="T41" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C41,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T41" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C41,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U41" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V41" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="W41" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X41" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y41" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -5404,39 +5006,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R42" s="2"/>
-      <c r="S42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R42" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S42" s="5"/>
+      <c r="T42" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C42,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T42" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C42,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U42" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V42" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X42" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y42" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -5477,39 +5079,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R43" s="2"/>
-      <c r="S43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R43" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S43" s="5"/>
+      <c r="T43" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C43,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T43" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C43,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U43" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V43" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
       <c r="W43" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X43" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y43" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B44" t="s">
@@ -5550,39 +5152,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R44" s="2"/>
-      <c r="S44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R44" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S44" s="5"/>
+      <c r="T44" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C44,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T44" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C44,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U44" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V44" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>44</v>
       </c>
       <c r="W44" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X44" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y44" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B45" t="s">
@@ -5623,39 +5225,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R45" s="2"/>
-      <c r="S45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R45" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S45" s="5"/>
+      <c r="T45" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C45,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T45" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C45,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U45" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V45" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="W45" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X45" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y45" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B46" t="s">
@@ -5696,39 +5298,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R46" s="2"/>
-      <c r="S46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R46" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S46" s="5"/>
+      <c r="T46" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C46,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T46" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C46,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U46" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V46" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="W46" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X46" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y46" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B47" t="s">
@@ -5769,39 +5371,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R47" s="2"/>
-      <c r="S47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R47" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S47" s="5"/>
+      <c r="T47" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C47,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T47" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C47,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U47" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X47" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y47" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -5842,39 +5444,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R48" s="2"/>
-      <c r="S48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R48" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S48" s="5"/>
+      <c r="T48" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C48,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T48" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C48,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U48" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V48" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
       <c r="W48" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X48" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y48" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -5915,39 +5517,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R49" s="2"/>
-      <c r="S49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R49" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S49" s="5"/>
+      <c r="T49" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C49,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T49" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C49,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U49" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V49" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
       <c r="W49" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X49" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y49" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -5988,39 +5590,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R50" s="2"/>
-      <c r="S50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R50" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S50" s="5"/>
+      <c r="T50" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C50,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T50" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C50,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U50" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V50" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="W50" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X50" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y50" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -6061,39 +5663,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R51" s="2"/>
-      <c r="S51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R51" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S51" s="5"/>
+      <c r="T51" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C51,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T51" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C51,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U51" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V51" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="W51" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X51" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y51" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B52" t="s">
@@ -6134,39 +5736,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R52" s="2"/>
-      <c r="S52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R52" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S52" s="5"/>
+      <c r="T52" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C52,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T52" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C52,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U52" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V52" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="W52" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X52" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y52" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -6207,39 +5809,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R53" s="2"/>
-      <c r="S53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R53" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S53" s="5"/>
+      <c r="T53" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C53,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T53" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C53,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U53" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V53" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>53</v>
       </c>
       <c r="W53" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X53" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y53" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B54" t="s">
@@ -6280,39 +5882,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R54" s="2"/>
-      <c r="S54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R54" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S54" s="5"/>
+      <c r="T54" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C54,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T54" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C54,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U54" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
       <c r="W54" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y54" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B55" t="s">
@@ -6353,39 +5955,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R55" s="2"/>
-      <c r="S55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R55" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S55" s="5"/>
+      <c r="T55" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C55,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T55" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C55,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U55" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V55" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>55</v>
       </c>
       <c r="W55" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X55" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y55" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B56" t="s">
@@ -6426,39 +6028,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R56" s="2"/>
-      <c r="S56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R56" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S56" s="5"/>
+      <c r="T56" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C56,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T56" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C56,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U56" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V56" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>56</v>
       </c>
       <c r="W56" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X56" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y56" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B57" t="s">
@@ -6499,39 +6101,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R57" s="2"/>
-      <c r="S57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R57" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S57" s="5"/>
+      <c r="T57" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C57,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T57" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C57,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U57" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V57" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>57</v>
       </c>
       <c r="W57" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X57" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y57" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B58" t="s">
@@ -6572,39 +6174,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R58" s="2"/>
-      <c r="S58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R58" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S58" s="5"/>
+      <c r="T58" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C58,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T58" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C58,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U58" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V58" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>58</v>
       </c>
       <c r="W58" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X58" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y58" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -6645,39 +6247,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R59" s="2"/>
-      <c r="S59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R59" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S59" s="5"/>
+      <c r="T59" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C59,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T59" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C59,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U59" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V59" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>59</v>
       </c>
       <c r="W59" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X59" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y59" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -6718,39 +6320,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R60" s="2"/>
-      <c r="S60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R60" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S60" s="5"/>
+      <c r="T60" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C60,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T60" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C60,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U60" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V60" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
       <c r="W60" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X60" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y60" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -6791,39 +6393,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R61" s="2"/>
-      <c r="S61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R61" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S61" s="5"/>
+      <c r="T61" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C61,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T61" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C61,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U61" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V61" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>61</v>
       </c>
       <c r="W61" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X61" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y61" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -6864,39 +6466,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R62" s="2"/>
-      <c r="S62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R62" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S62" s="5"/>
+      <c r="T62" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C62,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T62" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C62,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U62" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V62" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
       <c r="W62" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X62" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y62" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -6937,39 +6539,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R63" s="2"/>
-      <c r="S63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R63" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S63" s="5"/>
+      <c r="T63" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C63,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T63" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C63,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U63" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V63" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
       <c r="W63" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X63" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y63" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -7010,39 +6612,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R64" s="2"/>
-      <c r="S64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R64" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S64" s="5"/>
+      <c r="T64" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C64,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T64" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C64,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U64" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V64" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="W64" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X64" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y64" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B65" t="s">
@@ -7083,39 +6685,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R65" s="2"/>
-      <c r="S65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R65" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S65" s="5"/>
+      <c r="T65" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C65,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T65" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C65,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U65" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="V65" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="W65" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X65" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y65" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B66" t="s">
@@ -7156,39 +6758,39 @@
         <f t="shared" si="11"/>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R66" s="2"/>
-      <c r="S66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R66" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S66" s="5"/>
+      <c r="T66" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C66,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T66" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C66,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U66" s="5" t="str">
-        <f t="shared" ref="U66:U69" si="18">IF(EXACT(T66,E66),"ü","x")</f>
+        <f t="shared" ref="U66:U69" si="19">IF(EXACT(T66,E66),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="V66" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="W66" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X66" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y66" s="4">
-        <f t="shared" ref="Y66:Y69" si="19">SUM(W66:X66)</f>
+        <f t="shared" ref="Y66:Y69" si="20">SUM(W66:X66)</f>
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -7214,54 +6816,54 @@
         <v>26</v>
       </c>
       <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67:N69" si="20">CONCATENATE("SIFERE - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="N67:N69" si="21">CONCATENATE("SIFERE - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>SIFERE -  -  - 30000000000 - Cliente</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" ref="O67:O69" si="21">CONCATENATE("SIRCAR - JURISDICCION - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="O67:O69" si="22">CONCATENATE("SIRCAR - JURISDICCION - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
       </c>
       <c r="P67" s="2" t="str">
-        <f t="shared" ref="P67:P69" si="22">CONCATENATE("SIRCREB - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="P67:P69" si="23">CONCATENATE("SIRCREB - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>SIRCREB -  -  - 30000000000 - Cliente</v>
       </c>
       <c r="Q67" s="2" t="str">
-        <f t="shared" ref="Q67:Q69" si="23">CONCATENATE("SIRPEI - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="Q67:Q69" si="24">CONCATENATE("SIRPEI - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>SIRPEI -  -  - 30000000000 - Cliente</v>
       </c>
-      <c r="R67" s="2"/>
-      <c r="S67" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
+      <c r="R67" s="2" t="str">
+        <f t="shared" ref="R67:R69" si="25">CONCATENATE("SIRTAC - ",G67,F67," - ",I67,H67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S67" s="5"/>
+      <c r="T67" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C67,[1]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="T67" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C67,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
       <c r="U67" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>x</v>
       </c>
       <c r="V67" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="W67" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X67" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y67" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B68" t="s">
@@ -7287,54 +6889,54 @@
         <v>26</v>
       </c>
       <c r="N68" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O68" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P68" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q68" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R68" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S68" s="5"/>
+      <c r="T68" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C68,[1]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U68" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>x</v>
+      </c>
+      <c r="V68" s="4">
+        <f t="shared" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="W68" s="4">
+        <f t="shared" ref="W68:W69" si="26">IF(C68=C67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X68" s="4">
+        <f t="shared" ref="X68:X69" si="27">IF(C68=C69,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y68" s="4">
         <f t="shared" si="20"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O68" s="2" t="str">
-        <f t="shared" si="21"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P68" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q68" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R68" s="2"/>
-      <c r="S68" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="T68" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C68,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="U68" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="V68" s="4">
-        <f t="shared" si="14"/>
-        <v>68</v>
-      </c>
-      <c r="W68" s="4">
-        <f t="shared" ref="W68:W69" si="24">IF(C68=C67,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X68" s="4">
-        <f t="shared" ref="X68:X69" si="25">IF(C68=C69,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y68" s="4">
-        <f t="shared" si="19"/>
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -7360,48 +6962,48 @@
         <v>26</v>
       </c>
       <c r="N69" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>SIFERE -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="O69" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="P69" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="Q69" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="R69" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>SIRTAC -  -  - 30000000000 - Cliente</v>
+      </c>
+      <c r="S69" s="5"/>
+      <c r="T69" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C69,[1]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="U69" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>x</v>
+      </c>
+      <c r="V69" s="4">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="W69" s="4">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="X69" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="4">
         <f t="shared" si="20"/>
-        <v>SIFERE -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="O69" s="2" t="str">
-        <f t="shared" si="21"/>
-        <v>SIRCAR - JURISDICCION -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="P69" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v>SIRCREB -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="Q69" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>SIRPEI -  -  - 30000000000 - Cliente</v>
-      </c>
-      <c r="R69" s="2"/>
-      <c r="S69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;#REF!,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="T69" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C69,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="U69" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="V69" s="4">
-        <f t="shared" si="14"/>
-        <v>69</v>
-      </c>
-      <c r="W69" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X69" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
